--- a/biology/Botanique/Artémis_Domaines/Artémis_Domaines.xlsx
+++ b/biology/Botanique/Artémis_Domaines/Artémis_Domaines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A9mis_Domaines</t>
+          <t>Artémis_Domaines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Artémis Domaines est une filiale de la société Artémis détenue par la famille Pinault. Créé en 1993, Artémis Domaines regroupe des vignobles situés dans le Bordelais, la Bourgogne, la vallée du Rhône, la Champagne, en Californie dans la vallée de Napa[1] et en Oregon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Artémis Domaines est une filiale de la société Artémis détenue par la famille Pinault. Créé en 1993, Artémis Domaines regroupe des vignobles situés dans le Bordelais, la Bourgogne, la vallée du Rhône, la Champagne, en Californie dans la vallée de Napa et en Oregon.
 Les vignobles possédés sont : 
-Château Latour[2] ;
-Domaine d'Eugénie[3] ;
-Château Grillet[4] ;
-Eisele Vineyard[5] ;
-Clos de Tart[6] ;
-Champagne Jaquesson[7] ;
+Château Latour ;
+Domaine d'Eugénie ;
+Château Grillet ;
+Eisele Vineyard ;
+Clos de Tart ;
+Champagne Jaquesson ;
 Bouchard Père &amp; Fils ;
 Beaux-Frères.</t>
         </is>
